--- a/_documentacion/tiempos.xlsx
+++ b/_documentacion/tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\tuinformatico\_documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C487F781-C679-4602-A74E-8FAAA178898B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564966DE-3ADA-4C21-B331-7BAE322B4EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Diseño</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Desarrollar index (fila superior buscar y loguear)</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>PHOTOSHOP</t>
   </si>
   <si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>windows</t>
+  </si>
+  <si>
+    <t>Maquetar web index</t>
+  </si>
+  <si>
+    <t>HTML BOOTSTRAP</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,19 +529,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
       <c r="G3">
         <v>0.5</v>
@@ -563,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -572,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -583,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -592,21 +595,41 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
